--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159979</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发粤港澳大湾区创新100ETF</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>159979</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>广发粤港澳大湾区创新100ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,7 +920,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -915,7 +1010,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -931,14 +1026,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1042,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,7 +1015,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1010,7 +1105,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1026,7 +1121,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1042,14 +1137,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1058,13 +1153,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1110,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1105,7 +1200,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1121,7 +1216,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1137,7 +1232,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1153,14 +1248,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -1169,13 +1264,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -612,64 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159979</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发粤港澳大湾区创新100ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -744,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -838,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -932,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1026,26 +1042,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,7 +1096,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1120,26 +1136,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1153,144 +1207,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,26 +965,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1042,26 +1059,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1087,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1201,7 +1312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00002-中电控股.xlsx
+++ b/数据整理/stocks/港股/00002-中电控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -772,31 +883,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -871,26 +982,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -965,26 +1076,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1130,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1059,26 +1170,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1153,26 +1264,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1181,6 +1292,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1310,98 +1515,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>